--- a/Hebrew_生字.xlsx
+++ b/Hebrew_生字.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PertonChang\Desktop\Hebrew\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PertonChang\Documents\GitHub\Hebrew_Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>Good Week</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>מֹשֶׁה</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安息年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shemittah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意思是豁免年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +330,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -405,13 +417,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -706,7 +718,8 @@
     <col min="3" max="4" width="16.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.875" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -1054,6 +1067,17 @@
       </c>
       <c r="F27" s="5">
         <v>864</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Hebrew_生字.xlsx
+++ b/Hebrew_生字.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
   <si>
     <t>Good Week</t>
   </si>
@@ -322,6 +322,120 @@
   </si>
   <si>
     <t>意思是豁免年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘子汁</t>
+  </si>
+  <si>
+    <t>檸檬汁</t>
+  </si>
+  <si>
+    <t>石榴汁</t>
+  </si>
+  <si>
+    <t>מיץ תפוזים</t>
+  </si>
+  <si>
+    <t>מיץ לימון</t>
+  </si>
+  <si>
+    <t>מיץ רימונים</t>
+  </si>
+  <si>
+    <t>Mits Tapuzim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>מּיץ לימון</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>מּיץ רימוים</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>מּיץ תַּפּוּזִים</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>מלך</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>מֶלֶך</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>עבד</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>סוס</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>סוּס</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>עֶבֶד</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>פרעה</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>פַּרְעֹה</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>מצרים</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>מִצְרַיִם</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>שנה</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>שָׁנָה</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>שם</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>שֵׁם</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>שְׁבִיעִית</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>שביעית</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>תָּמָר</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>תמר</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜜棗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tamar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
@@ -1003,6 +1117,12 @@
       <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="C20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="F20" s="5">
         <v>682</v>
       </c>
@@ -1025,6 +1145,12 @@
       <c r="B22" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="C22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="F22" s="5">
         <v>2530</v>
       </c>
@@ -1033,6 +1159,12 @@
       <c r="B23" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="C23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="F23" s="5">
         <v>138</v>
       </c>
@@ -1041,6 +1173,12 @@
       <c r="B24" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="C24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="F24" s="5">
         <v>803</v>
       </c>
@@ -1049,6 +1187,12 @@
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="C25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="F25" s="5">
         <v>274</v>
       </c>
@@ -1057,6 +1201,12 @@
       <c r="B26" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="C26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="F26" s="5">
         <v>878</v>
       </c>
@@ -1065,6 +1215,12 @@
       <c r="B27" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="C27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="F27" s="5">
         <v>864</v>
       </c>
@@ -1073,11 +1229,67 @@
       <c r="B28" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="C28" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
